--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -1,40 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Api_Auto\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB76A24-90E7-4D76-9524-B004FD496B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>http_method</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://testleague.round-table-union.com/api/rts/base/home/login/v110</t>
+  </si>
+  <si>
+    <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "e10adc3949ba59abbe56e057f20f883e","loginType": "1","smsCode": "","loginCode": "13411111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
+  </si>
+  <si>
+    <t>正常登陆</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'content-type':'application/json','version': '1.3.1','platform': 'iOS'}</t>
+  </si>
+  <si>
+    <t>{'msg': '操作成功', 'requestUUID': 'JY-feeb6c014a75a659d20893f22b327f10', 'responseTime': '2020-06-02 21:31:59', 'ret': '0', 'success': '0', 'val': {'businessTypeId': '1', 'companyId': '330777113773744128', 'employeeId': '330777113832464384', 'employeeLayoutViewStatus': '1', 'employeeNickName': '吴迪', 'housekeeperViewStatus': '1', 'ifFirstLogin': '0', 'roleId': '1', 'shopId': '330777113857630208', 'shopName': '集勇美发3', 'shopViewStatus': '3', 'tk': '8dad9442-3039-41a1-8d13-a795dcd2773b'}}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "e10adc3949ba59abbe56e057f20f883e","loginType": "1","smsCode": "","loginCode": "","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
+  </si>
+  <si>
+    <t>不输入手机号</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-b2e0d062f1666b0e07fb28a8d0bec702', 'responseTime': '2020-06-02 21:31:59', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "","loginType": "1","smsCode": "","loginCode": "13011111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
+  </si>
+  <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
+    <t>{'msg': '登录密码错误', 'requestUUID': 'JY-bb209b0aea02f57ec781f0f0c0fc0dd0', 'responseTime': '2020-06-02 21:31:59', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "","loginType": "1","smsCode": "","loginCode": "","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
+  </si>
+  <si>
+    <t>输入为空</t>
+  </si>
+  <si>
+    <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-fe508871545158b738232966f62ca5f9', 'responseTime': '2020-06-02 21:31:59', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "e10adc3949ba59abbe56e057f20f883e","loginType": "1","smsCode": "","loginCode": "134111111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
+  </si>
+  <si>
+    <t>手机号错误</t>
+  </si>
+  <si>
+    <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-d9ac07e2e9dfb600aec1dcc12af357d5', 'responseTime': '2020-06-02 21:31:59', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "1234567","loginType": "1","smsCode": "","loginCode": "13411111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{'msg': '登录密码错误', 'requestUUID': 'JY-c552a11822e327bb03eb9b878c8f16a7', 'responseTime': '2020-06-02 21:31:59', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,24 +172,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -333,290 +464,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="9"/>
-    <col customWidth="1" max="2" min="2" style="2" width="72"/>
-    <col customWidth="1" max="3" min="3" style="2" width="116"/>
-    <col customWidth="1" max="4" min="4" style="2" width="13"/>
-    <col customWidth="1" max="5" min="5" style="2" width="14.625"/>
-    <col customWidth="1" max="6" min="6" style="2" width="64.5"/>
-    <col customWidth="1" max="8" min="7" style="2" width="9"/>
-    <col customWidth="1" max="16384" min="9" style="2" width="9"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="72" style="2" customWidth="1"/>
+    <col min="3" max="3" width="116" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="64.5" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>http_method</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>header</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://testleague.round-table-union.com/api/rts/base/home/login/v110</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "e10adc3949ba59abbe56e057f20f883e","loginType": "1","smsCode": "","loginCode": "13411111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>正常登陆</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.3.1','platform': 'iOS'}</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-0ebaf9d8efbe4712706569472e5364bd', 'responseTime': '2020-05-31 10:58:05', 'ret': '0', 'success': '0', 'val': {'businessTypeId': '1', 'companyId': '330777113773744128', 'employeeId': '330777113832464384', 'employeeLayoutViewStatus': '1', 'employeeNickName': '吴迪', 'housekeeperViewStatus': '1', 'ifFirstLogin': '0', 'roleId': '1', 'shopId': '330777113857630208', 'shopName': '集勇美发3', 'shopViewStatus': '3', 'tk': 'dd8b62b9-02d3-4f64-8322-608cb90f1d78'}}</t>
-        </is>
+    <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://testleague.round-table-union.com/api/rts/base/home/login/v110</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "e10adc3949ba59abbe56e057f20f883e","loginType": "1","smsCode": "","loginCode": "","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>不输入手机号</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.3.1','platform': 'iOS'}</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-d1fa9ff0a5914c914a8c2488588a6c0f', 'responseTime': '2020-05-31 10:58:05', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
+    <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://testleague.round-table-union.com/api/rts/base/home/login/v110</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "","loginType": "1","smsCode": "","loginCode": "13011111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>不输入密码</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.3.1','platform': 'iOS'}</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-051db75bccba38763ca7d612ddabd2be', 'responseTime': '2020-05-31 10:58:05', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://testleague.round-table-union.com/api/rts/base/home/login/v110</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "","loginType": "1","smsCode": "","loginCode": "","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>输入为空</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.3.1','platform': 'iOS'}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-45ffb74c9b7d1f6c450cb9f9f9823d87', 'responseTime': '2020-05-31 10:58:05', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
+    <row r="5" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://testleague.round-table-union.com/api/rts/base/home/login/v110</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "e10adc3949ba59abbe56e057f20f883e","loginType": "1","smsCode": "","loginCode": "134111111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>手机号错误</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.3.1','platform': 'iOS'}</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-c791b58732e994e772cfd1e66a9469fd', 'responseTime': '2020-05-31 10:58:06', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
+    <row r="6" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://testleague.round-table-union.com/api/rts/base/home/login/v110</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>{"smsCodeToken": "","standbyUniqueIdentification": "_Android10","deviceUniqueIdentification": "","password": "1234567","loginType": "1","smsCode": "","loginCode": "13411111111","source": "","applicationId":"AoSf3sOaLVENjofVUhIoMRt-Pjs7603WuGNytkwvoC2y"}</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>密码错误</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>{'content-type':'application/json','version': '1.3.1','platform': 'iOS'}</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-7cb9e9f403b9b430deb2b06050cb28ad', 'responseTime': '2020-05-31 10:58:06', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
-        </is>
+    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="28680" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="share" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="init" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,24 +53,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -348,14 +349,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9" customWidth="1" style="2" min="1" max="1"/>
-    <col width="72" customWidth="1" style="2" min="2" max="2"/>
-    <col width="116" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13" customWidth="1" style="2" min="4" max="4"/>
-    <col width="14.625" customWidth="1" style="2" min="5" max="5"/>
-    <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="11"/>
-    <col width="9" customWidth="1" style="2" min="12" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="72"/>
+    <col customWidth="1" max="3" min="3" style="2" width="116"/>
+    <col customWidth="1" max="4" min="4" style="2" width="13"/>
+    <col customWidth="1" max="5" min="5" style="2" width="14.625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="64.5"/>
+    <col customWidth="1" max="12" min="7" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="13" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -400,7 +401,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="42.75" customHeight="1">
+    <row customHeight="1" ht="42.75" r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -433,7 +434,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-7b7537294ea32916c4d439fee4e75f86', 'responseTime': '2020-06-05 17:13:01', 'ret': '0', 'success': '0', 'val': {'businessTypeId': '1', 'companyId': '330777113773744128', 'employeeId': '330777113832464384', 'employeeLayoutViewStatus': '1', 'employeeNickName': '吴迪', 'housekeeperViewStatus': '1', 'ifFirstLogin': '0', 'roleId': '1', 'shopId': '330777113857630208', 'shopName': '集勇美发3', 'shopViewStatus': '3', 'tk': '078e7872-f76a-4150-becf-6f57ad9350fe'}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-29f03245d510444952882babb0534afe', 'responseTime': '2020-06-08 20:22:01', 'ret': '0', 'success': '0', 'val': {'businessTypeId': '1', 'companyId': '330777113773744128', 'employeeId': '330777113832464384', 'employeeLayoutViewStatus': '1', 'employeeNickName': '吴迪', 'housekeeperViewStatus': '1', 'ifFirstLogin': '0', 'roleId': '1', 'shopId': '330777113857630208', 'shopName': '集勇美发3', 'shopViewStatus': '3', 'tk': 'c758bc09-42d7-4eeb-9509-47496c0f0a1c'}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -442,7 +443,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="42.75" customHeight="1">
+    <row customHeight="1" ht="42.75" r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2</t>
@@ -475,7 +476,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-335573bd6715a7ea71f53781e82715c5', 'responseTime': '2020-06-05 17:13:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-d62c88d261d5e3f8a1d960ebe4717a85', 'responseTime': '2020-06-08 20:22:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -484,7 +485,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="28.5" customHeight="1">
+    <row customHeight="1" ht="28.5" r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>3</t>
@@ -517,7 +518,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-d412e43d17d20fe741549c32c7b3a5bb', 'responseTime': '2020-06-05 17:13:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-2414f8d3f4edc5116deb98737e5f92ae', 'responseTime': '2020-06-08 20:22:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -526,7 +527,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="28.5" customHeight="1">
+    <row customHeight="1" ht="28.5" r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>4</t>
@@ -559,7 +560,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-9d156e10427441a78d9bce97c169a0c9', 'responseTime': '2020-06-05 17:13:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '手机号不能为空', 'requestUUID': 'JY-3176ec90ba7e024853fb69e0c855caa1', 'responseTime': '2020-06-08 20:22:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -568,7 +569,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="42.75" customHeight="1">
+    <row customHeight="1" ht="42.75" r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -601,7 +602,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-342a0f185b6f16a1fa66bc0b0025b5e3', 'responseTime': '2020-06-05 17:13:02', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-177d4e886060ee816c1f4334f35cb766', 'responseTime': '2020-06-08 20:22:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -610,7 +611,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="28.5" customHeight="1">
+    <row customHeight="1" ht="28.5" r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>6</t>
@@ -643,7 +644,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-889019544915cdd1b5a65519d1455253', 'responseTime': '2020-06-05 17:13:02', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-58088019fb2e3c5f7db49a607d03630d', 'responseTime': '2020-06-08 20:22:01', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -653,7 +654,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -666,20 +667,20 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9" customWidth="1" style="2" min="1" max="1"/>
-    <col width="72" customWidth="1" style="2" min="2" max="2"/>
-    <col width="116" customWidth="1" style="2" min="3" max="3"/>
-    <col width="13" customWidth="1" style="2" min="4" max="4"/>
-    <col width="14.625" customWidth="1" style="2" min="5" max="5"/>
-    <col width="64.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="11"/>
-    <col width="9" customWidth="1" style="2" min="12" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="72"/>
+    <col customWidth="1" max="3" min="3" style="2" width="116"/>
+    <col customWidth="1" max="4" min="4" style="2" width="13"/>
+    <col customWidth="1" max="5" min="5" style="2" width="14.625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="64.5"/>
+    <col customWidth="1" max="12" min="7" style="2" width="9"/>
+    <col customWidth="1" max="16384" min="13" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -724,7 +725,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="42.75" customHeight="1">
+    <row customHeight="1" ht="42.75" r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -757,7 +758,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'msg': '操作成功', 'requestUUID': 'JY-2ab7ed0918ed314a62aa3ba9eae7ab63', 'responseTime': '2020-06-05 17:13:02', 'ret': '0', 'success': '0', 'val': {'businessTypeId': '1', 'companyId': '330777113773744128', 'employeeId': '330777113832464384', 'employeeLayoutViewStatus': '1', 'employeeNickName': '吴迪', 'housekeeperViewStatus': '1', 'ifFirstLogin': '0', 'roleId': '1', 'shopId': '330777113857630208', 'shopName': '集勇美发3', 'shopViewStatus': '3', 'tk': '4adc28d1-0274-40d8-8c18-f3b0bf39555a'}}</t>
+          <t>{'msg': '操作成功', 'requestUUID': 'JY-1df3032f48613b53e6dfa813114bf85f', 'responseTime': '2020-06-08 20:22:02', 'ret': '0', 'success': '0', 'val': {'businessTypeId': '1', 'companyId': '330777113773744128', 'employeeId': '330777113832464384', 'employeeLayoutViewStatus': '1', 'employeeNickName': '吴迪', 'housekeeperViewStatus': '1', 'ifFirstLogin': '0', 'roleId': '1', 'shopId': '330777113857630208', 'shopName': '集勇美发3', 'shopViewStatus': '3', 'tk': 'e1d4640a-9a97-4733-a960-2825b8288ea1'}}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -766,7 +767,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="42.75" customHeight="1">
+    <row customHeight="1" ht="42.75" r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2</t>
@@ -803,7 +804,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="28.5" customHeight="1">
+    <row customHeight="1" ht="28.5" r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>3</t>
@@ -836,7 +837,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-1e838ac1ccb75792fcf163e2c18b8695', 'responseTime': '2020-06-05 17:13:02', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '登录密码错误', 'requestUUID': 'JY-693fa92afc7f44470f3fe82f2c35cfde', 'responseTime': '2020-06-08 20:22:02', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -845,7 +846,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="28.5" customHeight="1">
+    <row customHeight="1" ht="28.5" r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>4</t>
@@ -882,7 +883,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="42.75" customHeight="1">
+    <row customHeight="1" ht="42.75" r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -915,7 +916,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-3fa604c653d32612281b7a22bc8634a7', 'responseTime': '2020-06-05 17:13:03', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
+          <t>{'msg': '错误的手机号，请确认手机号信息', 'requestUUID': 'JY-4a0e24bc5812f0328dd937cf3d833bde', 'responseTime': '2020-06-08 20:22:02', 'ret': 'ERROR_CODE_10002', 'success': '1', 'val': {}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -924,7 +925,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="28.5" customHeight="1">
+    <row customHeight="1" ht="28.5" r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>6</t>
@@ -962,8 +963,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -981,16 +982,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="72" customWidth="1" min="2" max="2"/>
-    <col width="116" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="14.625" customWidth="1" min="5" max="5"/>
-    <col width="64.5" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="10"/>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="72"/>
+    <col customWidth="1" max="3" min="3" width="116"/>
+    <col customWidth="1" max="4" min="4" width="13"/>
+    <col customWidth="1" max="5" min="5" width="14.625"/>
+    <col customWidth="1" max="6" min="6" width="64.5"/>
+    <col customWidth="1" max="10" min="7" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
+    <row customFormat="1" r="1" s="2">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -1033,6 +1034,113 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="15.25"/>
+    <col customWidth="1" max="2" min="2" width="19.625"/>
+    <col customWidth="1" max="3" min="3" width="28.125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>测试数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15096090558</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tel</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>未注册的手机号</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15096090552</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>normal_tel</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>充值投资专用</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>18688773467</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admin_tel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>管理员帐号加标</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>loan_member_id</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>借钱的id</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27432</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>memberID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>投资账户跟充值投资账户对应</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>